--- a/Data Files/insumosVida3.xlsx
+++ b/Data Files/insumosVida3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JRobertoMV\Katalon Studio\Poyectos Banorte\APF_APIS_SF_MulesoftV2\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitBanorte\APF_APIS_SF_MulesoftV2\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E285A5D1-A192-4DE2-873A-14CF8969BCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141922C7-CAD3-4128-AD90-68C813D75C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{D93C2285-B407-40EF-9706-4982E6D696BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="8" xr2:uid="{D93C2285-B407-40EF-9706-4982E6D696BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Autos MS PRE" sheetId="11" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <sheet name="Vida MS" sheetId="5" r:id="rId5"/>
     <sheet name="Prueba regresion" sheetId="8" r:id="rId6"/>
     <sheet name="Regresion 2 Vida" sheetId="9" r:id="rId7"/>
-    <sheet name="Vida" sheetId="1" r:id="rId8"/>
-    <sheet name="CAHA" sheetId="2" r:id="rId9"/>
-    <sheet name="Autos" sheetId="3" r:id="rId10"/>
+    <sheet name="Regresion 3 Vida QA" sheetId="12" r:id="rId8"/>
+    <sheet name="Regresion 3 Vida PRE" sheetId="13" r:id="rId9"/>
+    <sheet name="Vida" sheetId="1" r:id="rId10"/>
+    <sheet name="CAHA" sheetId="2" r:id="rId11"/>
+    <sheet name="Autos" sheetId="3" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -151,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="484">
   <si>
     <t>CURP</t>
   </si>
@@ -1530,12 +1532,6 @@
     <t>J-5</t>
   </si>
   <si>
-    <t>2024-07-18</t>
-  </si>
-  <si>
-    <t>2025-07-18</t>
-  </si>
-  <si>
     <t>Lázaro Cárdenas</t>
   </si>
   <si>
@@ -1603,13 +1599,19 @@
   </si>
   <si>
     <t>gael@gmail.com</t>
+  </si>
+  <si>
+    <t>2024-07-19</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1671,6 +1673,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1711,7 +1720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1740,6 +1749,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3256,6 +3266,1338 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DE6A71-EDA3-43EC-9D6B-B3E4D10E3248}">
+  <dimension ref="A1:AZ6"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3:AB6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="13">
+        <v>5586768965</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="13">
+        <v>57000</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="13">
+        <v>50</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="17">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="17">
+        <v>6.5341235123412301E+17</v>
+      </c>
+      <c r="AJ2" s="17">
+        <v>26</v>
+      </c>
+      <c r="AK2" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="AO2" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="AQ2" s="13">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT2" s="13">
+        <v>229</v>
+      </c>
+      <c r="AU2" s="13">
+        <v>5</v>
+      </c>
+      <c r="AV2" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX2" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="AY2" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ2" s="13">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="13">
+        <v>5687589745</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="13">
+        <v>9763</v>
+      </c>
+      <c r="F3" s="13">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="13">
+        <v>57000</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="R3" s="13">
+        <v>100</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH3" s="17">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="17">
+        <v>6.5341235123412301E+17</v>
+      </c>
+      <c r="AJ3" s="17">
+        <v>25</v>
+      </c>
+      <c r="AK3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="13">
+        <v>5696878451</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="13">
+        <v>254</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="13">
+        <v>57000</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="R4" s="13">
+        <v>100</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH4" s="17">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="17">
+        <v>6.5341235123412301E+17</v>
+      </c>
+      <c r="AJ4" s="17">
+        <v>26</v>
+      </c>
+      <c r="AK4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="13">
+        <v>5570662434</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="13">
+        <v>219</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="13">
+        <v>57460</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="R5" s="13">
+        <v>50</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="T5" s="13">
+        <v>221</v>
+      </c>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>57460</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH5" s="17">
+        <v>12</v>
+      </c>
+      <c r="AI5" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ5" s="17">
+        <v>26</v>
+      </c>
+      <c r="AK5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM5" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN5" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AO5" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ5" s="13">
+        <v>50</v>
+      </c>
+      <c r="AR5" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT5" s="13">
+        <v>229</v>
+      </c>
+      <c r="AU5" s="13">
+        <v>6</v>
+      </c>
+      <c r="AV5" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW5" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX5" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="AY5" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ5" s="13">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="13">
+        <v>5583270815</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="13">
+        <v>210</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="13">
+        <v>57460</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="R6" s="13">
+        <v>100</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="T6" s="13">
+        <v>12</v>
+      </c>
+      <c r="U6" s="13">
+        <v>1</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>55024</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="17">
+        <v>11</v>
+      </c>
+      <c r="AI6" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ6" s="17">
+        <v>25</v>
+      </c>
+      <c r="AK6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7BF3D5B1-92F4-461E-B3A2-2D237BC04FA1}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{3A2C619E-F279-4895-AECA-83125F7713C7}"/>
+    <hyperlink ref="N3" r:id="rId3" xr:uid="{3423114A-BD17-41B8-8CBD-DA95327401AD}"/>
+    <hyperlink ref="N4" r:id="rId4" xr:uid="{8A3D5782-F464-4C0F-86AB-67BA559A5BFA}"/>
+    <hyperlink ref="AN5" r:id="rId5" xr:uid="{04503FEC-C9DF-4F35-88FD-90F69D3A860D}"/>
+    <hyperlink ref="C3:C6" r:id="rId6" display="juanjuanmendezmendez000@gmail.com" xr:uid="{CDE73468-06C8-484E-9787-E9D13DC8C8C1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE776103-4059-409F-BBC0-65735330C997}">
+  <dimension ref="A1:AQ3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>5518975987</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>546</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2">
+        <v>4000000</v>
+      </c>
+      <c r="M2">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="S2">
+        <v>72</v>
+      </c>
+      <c r="T2">
+        <v>123</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2">
+        <v>23</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>20</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH2">
+        <v>8000000</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ2">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>5518975987</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3">
+        <v>546</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3">
+        <v>4000000</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="S3">
+        <v>72</v>
+      </c>
+      <c r="T3">
+        <v>123</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3">
+        <v>23</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>20</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH3">
+        <v>8000000</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ3">
+        <v>1600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BEA6F2A3-A9EF-450A-998C-E0916E908DA3}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{2115927B-D882-4F9A-BE48-30371D064D26}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667FA8E4-69A8-4049-A63A-99DFF7AC13E3}">
   <dimension ref="A1:AN3"/>
   <sheetViews>
@@ -9780,8 +11122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB5C035-727F-4C2F-948D-405456B14947}">
   <dimension ref="A1:BD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:BD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10058,10 +11400,10 @@
         <v>45</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>46</v>
@@ -10198,10 +11540,10 @@
         <v>371</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="AG3" s="3" t="s">
         <v>407</v>
@@ -10368,10 +11710,10 @@
         <v>375</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>46</v>
@@ -10538,10 +11880,10 @@
         <v>377</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>408</v>
@@ -10705,10 +12047,10 @@
         <v>57460</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="AG6" s="3" t="s">
         <v>46</v>
@@ -10788,10 +12130,10 @@
         <v>389</v>
       </c>
       <c r="Q7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>281</v>
@@ -10830,10 +12172,10 @@
         <v>55024</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="AG7" s="3" t="s">
         <v>46</v>
@@ -10916,10 +12258,10 @@
         <v>384</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>274</v>
@@ -10958,10 +12300,10 @@
         <v>45</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>46</v>
@@ -11056,10 +12398,10 @@
         <v>385</v>
       </c>
       <c r="Q9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>276</v>
@@ -11098,10 +12440,10 @@
         <v>371</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="AG9" s="3" t="s">
         <v>407</v>
@@ -11131,10 +12473,10 @@
         <v>0</v>
       </c>
       <c r="AP9" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>464</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>466</v>
       </c>
       <c r="AR9" s="2" t="s">
         <v>248</v>
@@ -11143,7 +12485,7 @@
         <v>278</v>
       </c>
       <c r="AT9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AU9">
         <v>50</v>
@@ -11152,7 +12494,7 @@
         <v>2</v>
       </c>
       <c r="AW9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AX9">
         <v>645</v>
@@ -11226,10 +12568,10 @@
         <v>386</v>
       </c>
       <c r="Q10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>281</v>
@@ -11268,10 +12610,10 @@
         <v>375</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="AG10" s="3" t="s">
         <v>46</v>
@@ -11301,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="AP10" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AQ10" t="s">
         <v>391</v>
@@ -11313,7 +12655,7 @@
         <v>275</v>
       </c>
       <c r="AT10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AU10">
         <v>50</v>
@@ -11322,7 +12664,7 @@
         <v>2</v>
       </c>
       <c r="AW10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AX10">
         <v>230</v>
@@ -11396,10 +12738,10 @@
         <v>387</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>274</v>
@@ -11438,10 +12780,10 @@
         <v>377</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="AG11" s="3" t="s">
         <v>408</v>
@@ -11474,7 +12816,7 @@
         <v>397</v>
       </c>
       <c r="AQ11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AR11" s="2" t="s">
         <v>400</v>
@@ -11492,7 +12834,7 @@
         <v>2</v>
       </c>
       <c r="AW11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AX11">
         <v>145</v>
@@ -11566,10 +12908,10 @@
         <v>388</v>
       </c>
       <c r="Q12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="S12" s="5" t="s">
         <v>276</v>
@@ -11605,10 +12947,10 @@
         <v>57460</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="AG12" s="3" t="s">
         <v>46</v>
@@ -11688,10 +13030,10 @@
         <v>389</v>
       </c>
       <c r="Q13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>281</v>
@@ -11730,10 +13072,10 @@
         <v>55024</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="AG13" s="3" t="s">
         <v>46</v>
@@ -11767,6 +13109,7 @@
       <c r="AS13" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" xr:uid="{B0D40473-FF4E-497A-87FF-E68F035444BC}"/>
     <hyperlink ref="R4" r:id="rId2" xr:uid="{C703AF49-E5E3-4CA6-90C5-8B6CE1DBD100}"/>
@@ -11809,1333 +13152,1638 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DE6A71-EDA3-43EC-9D6B-B3E4D10E3248}">
-  <dimension ref="A1:AZ6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960B1BB5-DEB2-4C29-AA32-0C52508693B8}">
+  <dimension ref="A1:BD5"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AB6"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="11" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="11" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="P1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="Q1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="R1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="S1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="T1" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="U1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="V1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="W1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="X1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="Y1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="Z1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="AA1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="AB1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AC1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AD1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AM1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AN1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AO1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AP1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AR1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AS1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AT1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AU1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AV1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AW1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AX1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AY1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="BA1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="BB1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="BC1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="BD1" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="13">
-        <v>5586768965</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="13">
+        <v>330</v>
+      </c>
+      <c r="B2" s="20">
+        <v>30808</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5519875874</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I2" s="1">
+        <v>300</v>
+      </c>
+      <c r="J2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="K2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="V2" s="1">
+        <v>100</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="AB2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="13">
-        <v>57000</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="P2" s="16" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>6.5341235123412506E+17</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>26</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="20">
+        <v>31637</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3">
+        <v>5578494525</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H3" t="s">
+        <v>358</v>
+      </c>
+      <c r="I3">
+        <v>452</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K3" t="s">
+        <v>369</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" t="s">
+        <v>368</v>
+      </c>
+      <c r="N3" t="s">
+        <v>370</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>318</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="13">
+      <c r="U3" t="s">
+        <v>316</v>
+      </c>
+      <c r="V3">
         <v>50</v>
       </c>
-      <c r="S2" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC2" s="16" t="s">
+      <c r="W3" t="s">
+        <v>358</v>
+      </c>
+      <c r="X3">
+        <v>452</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AJ3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>25</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU3">
+        <v>50</v>
+      </c>
+      <c r="AV3">
+        <v>2</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AX3">
+        <v>568</v>
+      </c>
+      <c r="AY3">
+        <v>6</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>240</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>242</v>
+      </c>
+      <c r="BD3">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="20">
+        <v>28023</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="F4">
+        <v>5678951245</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I4">
+        <v>789</v>
+      </c>
+      <c r="J4" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" t="s">
+        <v>373</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>372</v>
+      </c>
+      <c r="N4" t="s">
+        <v>374</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>319</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="U4" t="s">
+        <v>317</v>
+      </c>
+      <c r="V4" s="1">
+        <v>50</v>
+      </c>
+      <c r="W4" t="s">
+        <v>359</v>
+      </c>
+      <c r="X4">
+        <v>789</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AI4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AJ4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="17">
+      <c r="AL4" s="4">
+        <v>11</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>28</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU4">
+        <v>50</v>
+      </c>
+      <c r="AV4">
+        <v>2</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>328</v>
+      </c>
+      <c r="AX4">
+        <v>14</v>
+      </c>
+      <c r="AY4">
+        <v>5</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>240</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>242</v>
+      </c>
+      <c r="BD4">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="20">
+        <v>27229</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5678975874</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I5" s="1">
+        <v>456</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V5" s="1">
+        <v>50</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X5" s="1">
+        <v>456</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL5" s="4">
         <v>12</v>
       </c>
-      <c r="AI2" s="17">
-        <v>6.5341235123412301E+17</v>
-      </c>
-      <c r="AJ2" s="17">
+      <c r="AM5" s="4">
+        <v>6.5341235123412506E+17</v>
+      </c>
+      <c r="AN5" s="4">
         <v>26</v>
       </c>
-      <c r="AK2" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="AM2" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="AO2" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ2" s="13">
+      <c r="AO5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>402</v>
+      </c>
+      <c r="AU5">
         <v>50</v>
       </c>
-      <c r="AR2" s="13">
+      <c r="AV5">
         <v>2</v>
       </c>
-      <c r="AS2" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT2" s="13">
-        <v>229</v>
-      </c>
-      <c r="AU2" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV2" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="AW2" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AX2" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="AY2" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="AZ2" s="13">
-        <v>44450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="13">
-        <v>5687589745</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="13">
-        <v>9763</v>
-      </c>
-      <c r="F3" s="13">
-        <v>3</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="13">
-        <v>57000</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="R3" s="13">
-        <v>100</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF3" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH3" s="17">
-        <v>12</v>
-      </c>
-      <c r="AI3" s="17">
-        <v>6.5341235123412301E+17</v>
-      </c>
-      <c r="AJ3" s="17">
-        <v>25</v>
-      </c>
-      <c r="AK3" s="17">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="16"/>
-      <c r="AZ3" s="16"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="13">
-        <v>5696878451</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="13">
-        <v>254</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="13">
-        <v>57000</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="R4" s="13">
-        <v>100</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC4" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF4" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG4" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH4" s="17">
-        <v>12</v>
-      </c>
-      <c r="AI4" s="17">
-        <v>6.5341235123412301E+17</v>
-      </c>
-      <c r="AJ4" s="17">
-        <v>26</v>
-      </c>
-      <c r="AK4" s="17">
+      <c r="AW5" t="s">
+        <v>401</v>
+      </c>
+      <c r="AX5">
+        <v>74</v>
+      </c>
+      <c r="AY5">
         <v>2</v>
       </c>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="16"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="16"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="16"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="13">
-        <v>5570662434</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="13">
-        <v>219</v>
-      </c>
-      <c r="F5" s="13">
-        <v>5</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="13">
-        <v>57460</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="R5" s="13">
-        <v>50</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="T5" s="13">
-        <v>221</v>
-      </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z5" s="13">
-        <v>57460</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG5" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH5" s="17">
-        <v>12</v>
-      </c>
-      <c r="AI5" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ5" s="17">
-        <v>26</v>
-      </c>
-      <c r="AK5" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="AM5" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="AN5" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="AO5" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AP5" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="AQ5" s="13">
-        <v>50</v>
-      </c>
-      <c r="AR5" s="13">
-        <v>2</v>
-      </c>
-      <c r="AS5" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT5" s="13">
-        <v>229</v>
-      </c>
-      <c r="AU5" s="13">
-        <v>6</v>
-      </c>
-      <c r="AV5" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="AW5" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AX5" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="AY5" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="AZ5" s="13">
-        <v>44450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" s="13">
-        <v>5583270815</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="E6" s="13">
-        <v>210</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" s="13">
-        <v>57460</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="R6" s="13">
-        <v>100</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="T6" s="13">
-        <v>12</v>
-      </c>
-      <c r="U6" s="13">
-        <v>1</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="X6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z6" s="13">
-        <v>55024</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC6" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF6" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH6" s="17">
-        <v>11</v>
-      </c>
-      <c r="AI6" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ6" s="17">
-        <v>25</v>
-      </c>
-      <c r="AK6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
+      <c r="AZ5" t="s">
+        <v>403</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>404</v>
+      </c>
+      <c r="BD5">
+        <v>58360</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{7BF3D5B1-92F4-461E-B3A2-2D237BC04FA1}"/>
-    <hyperlink ref="N2" r:id="rId2" xr:uid="{3A2C619E-F279-4895-AECA-83125F7713C7}"/>
-    <hyperlink ref="N3" r:id="rId3" xr:uid="{3423114A-BD17-41B8-8CBD-DA95327401AD}"/>
-    <hyperlink ref="N4" r:id="rId4" xr:uid="{8A3D5782-F464-4C0F-86AB-67BA559A5BFA}"/>
-    <hyperlink ref="AN5" r:id="rId5" xr:uid="{04503FEC-C9DF-4F35-88FD-90F69D3A860D}"/>
-    <hyperlink ref="C3:C6" r:id="rId6" display="juanjuanmendezmendez000@gmail.com" xr:uid="{CDE73468-06C8-484E-9787-E9D13DC8C8C1}"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{0891534C-EBEB-4DCD-B280-851724147EB8}"/>
+    <hyperlink ref="R4" r:id="rId2" xr:uid="{A3C0B74E-52F6-465B-AA1F-36AC3CF37259}"/>
+    <hyperlink ref="AR4" r:id="rId3" xr:uid="{3BBBB938-38CA-4DE8-9FD5-BF985D47B5DB}"/>
+    <hyperlink ref="AR3" r:id="rId4" xr:uid="{383FC87C-8331-49ED-B0A5-9F89905EFDAA}"/>
+    <hyperlink ref="G2:G4" r:id="rId5" display="juanjuanmendezmendez000@gmail.com" xr:uid="{C4AFB677-0AD3-4689-82B3-9C1F7922A3DE}"/>
+    <hyperlink ref="G2" r:id="rId6" xr:uid="{6B6B6458-CF62-404D-B75A-0A8463BC3F3B}"/>
+    <hyperlink ref="G3" r:id="rId7" xr:uid="{A201109D-5D35-4285-A6DE-3FF2065F6360}"/>
+    <hyperlink ref="G4" r:id="rId8" xr:uid="{7648C6E0-E3CA-4E7D-BC11-28027FB87F18}"/>
+    <hyperlink ref="R3" r:id="rId9" xr:uid="{144E5C0A-E06E-411F-9C97-FD347A6D962C}"/>
+    <hyperlink ref="R5" r:id="rId10" xr:uid="{9C551BBB-4958-4A34-AC8D-1FDC8E495329}"/>
+    <hyperlink ref="AR5" r:id="rId11" xr:uid="{3BA92A38-ADE4-4A2E-9CDE-782A55E9FE79}"/>
+    <hyperlink ref="G5" r:id="rId12" xr:uid="{400F205A-A2F1-4365-99C3-A499DBE531E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE776103-4059-409F-BBC0-65735330C997}">
-  <dimension ref="A1:AQ3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227C21FF-7D45-4B08-9797-0D0AF546C43A}">
+  <dimension ref="A1:BD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.1796875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AP1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="20">
+        <v>29945</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F2">
+        <v>5674511245</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>452</v>
+      </c>
+      <c r="K2" t="s">
+        <v>373</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N2" t="s">
+        <v>374</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>471</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="U2" t="s">
+        <v>317</v>
+      </c>
+      <c r="V2" s="1">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>359</v>
+      </c>
+      <c r="X2">
+        <v>789</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>11</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>28</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AU2">
+        <v>50</v>
+      </c>
+      <c r="AV2">
+        <v>2</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>460</v>
+      </c>
+      <c r="AX2">
+        <v>230</v>
+      </c>
+      <c r="AY2">
+        <v>52</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BD2">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" s="20">
+        <v>23329</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5678979874</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V3" s="1">
+        <v>50</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="X3" s="1">
+        <v>456</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>6.5341235123412506E+17</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>26</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>465</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AU3">
+        <v>50</v>
+      </c>
+      <c r="AV3">
+        <v>2</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>461</v>
+      </c>
+      <c r="AX3">
+        <v>145</v>
+      </c>
+      <c r="AY3">
         <v>66</v>
       </c>
-      <c r="AG1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>77</v>
+      <c r="AZ3" t="s">
+        <v>403</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>404</v>
+      </c>
+      <c r="BD3">
+        <v>58360</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2">
-        <v>5518975987</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2">
-        <v>546</v>
-      </c>
-      <c r="F2">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4" s="20">
+        <v>30123</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="F4">
+        <v>5578497854</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4" t="s">
+        <v>454</v>
+      </c>
+      <c r="I4">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" t="s">
+        <v>378</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>473</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="U4" t="s">
+        <v>395</v>
+      </c>
+      <c r="V4">
+        <v>100</v>
+      </c>
+      <c r="W4" t="s">
+        <v>225</v>
+      </c>
+      <c r="X4">
+        <v>221</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD4">
+        <v>57460</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>12</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>25</v>
+      </c>
+      <c r="AO4" s="4">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" s="20">
+        <v>25867</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5">
+        <v>5674557845</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H5" t="s">
+        <v>455</v>
+      </c>
+      <c r="I5">
+        <v>500</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>381</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2">
-        <v>4000000</v>
-      </c>
-      <c r="M2">
+      <c r="M5" t="s">
+        <v>380</v>
+      </c>
+      <c r="N5" t="s">
+        <v>382</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>474</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="U5" t="s">
+        <v>396</v>
+      </c>
+      <c r="V5" s="1">
+        <v>100</v>
+      </c>
+      <c r="W5" t="s">
         <v>40</v>
       </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="X5">
+        <v>12</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD5">
+        <v>55024</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="S2">
-        <v>72</v>
-      </c>
-      <c r="T2">
-        <v>123</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="W2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z2">
-        <v>23</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>20</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH2">
-        <v>8000000</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ2">
-        <v>1600000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3">
-        <v>5518975987</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3">
-        <v>546</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3">
-        <v>4000000</v>
-      </c>
-      <c r="M3">
-        <v>40</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>84</v>
-      </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="S3">
-        <v>72</v>
-      </c>
-      <c r="T3">
-        <v>123</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z3">
-        <v>23</v>
-      </c>
-      <c r="AA3">
+      <c r="AL5" s="4">
+        <v>11</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>30</v>
+      </c>
+      <c r="AO5" s="4">
         <v>1</v>
       </c>
-      <c r="AB3" s="1">
-        <v>20</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH3">
-        <v>8000000</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ3">
-        <v>1600000</v>
-      </c>
+      <c r="AP5" s="5"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BEA6F2A3-A9EF-450A-998C-E0916E908DA3}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{2115927B-D882-4F9A-BE48-30371D064D26}"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{6628CEAC-56E0-4DEC-8DD1-0C4C8CF436D3}"/>
+    <hyperlink ref="AR2" r:id="rId2" xr:uid="{AED5417D-17E2-4D3C-9BF9-5D90C6004204}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{15F78881-388C-49E3-93FB-1620444EFC6A}"/>
+    <hyperlink ref="R3" r:id="rId4" xr:uid="{514627A1-0B20-4A37-8D79-0197847BD1AE}"/>
+    <hyperlink ref="R5" r:id="rId5" xr:uid="{14265A6B-BD7A-4984-85F6-99C1C31BD4F2}"/>
+    <hyperlink ref="AR3" r:id="rId6" xr:uid="{DB427710-7057-4CCC-A6E8-839EAEDC6404}"/>
+    <hyperlink ref="G3:G5" r:id="rId7" display="juanjuanmendezmendez000@gmail.com" xr:uid="{45FC0272-C27F-496A-9797-03A62BCE3160}"/>
+    <hyperlink ref="G3" r:id="rId8" xr:uid="{92BAE271-466A-40EC-A547-9B0EDA301DFF}"/>
+    <hyperlink ref="G4" r:id="rId9" xr:uid="{FB4F3FFD-B5F9-4D97-91C0-48C369150AF1}"/>
+    <hyperlink ref="G5" r:id="rId10" xr:uid="{C4DFB0C1-EFA5-417C-8815-FB1A1F446ADD}"/>
+    <hyperlink ref="R4" r:id="rId11" xr:uid="{C0AF2D8F-26F5-41C5-A55E-A53B32FED961}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>